--- a/BarcodeDataAndSuppFig5-6-7/runcl141P6_CountTable.xlsx
+++ b/BarcodeDataAndSuppFig5-6-7/runcl141P6_CountTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/UMItest/runclU141PEP6/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/revisions_Sep2024/bc_processing_and_supfig567/bc1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E907BD76-2A19-A04E-8432-3C65988510DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB313A1-44AA-2A4A-AB8F-F68902C2BA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20920" yWindow="6760" windowWidth="51200" windowHeight="26800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bowtie_count_table_V5.1" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,6 @@
     <t>Spoly</t>
   </si>
   <si>
-    <t>Swf_26</t>
-  </si>
-  <si>
-    <t>Swf_26_Omicron</t>
-  </si>
-  <si>
     <t>gACTB</t>
   </si>
   <si>
@@ -1691,6 +1685,12 @@
   </si>
   <si>
     <t>well</t>
+  </si>
+  <si>
+    <t>Srbd</t>
+  </si>
+  <si>
+    <t>Srbd_v2</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2033,7 @@
   <dimension ref="A1:N182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2058,36 +2058,36 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -2123,15 +2123,15 @@
         <v>106442</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2167,15 +2167,15 @@
         <v>54992</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -2211,15 +2211,15 @@
         <v>100972</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2255,15 +2255,15 @@
         <v>111598</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C6">
         <v>3384</v>
@@ -2299,15 +2299,15 @@
         <v>189912</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C7">
         <v>3820</v>
@@ -2343,15 +2343,15 @@
         <v>144012</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C8">
         <v>4160</v>
@@ -2387,15 +2387,15 @@
         <v>163194</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2431,15 +2431,15 @@
         <v>93250</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -2475,15 +2475,15 @@
         <v>98813</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2519,15 +2519,15 @@
         <v>253308</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C12">
         <v>154</v>
@@ -2563,15 +2563,15 @@
         <v>51715</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2607,15 +2607,15 @@
         <v>166144</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -2651,15 +2651,15 @@
         <v>199721</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2695,15 +2695,15 @@
         <v>176666</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2739,15 +2739,15 @@
         <v>110805</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2783,15 +2783,15 @@
         <v>155672</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2827,15 +2827,15 @@
         <v>85598</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2871,15 +2871,15 @@
         <v>95254</v>
       </c>
       <c r="N19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C20">
         <v>29</v>
@@ -2915,15 +2915,15 @@
         <v>125658</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2959,15 +2959,15 @@
         <v>84700</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -3003,15 +3003,15 @@
         <v>165842</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -3047,15 +3047,15 @@
         <v>137774</v>
       </c>
       <c r="N23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C24">
         <v>46</v>
@@ -3091,15 +3091,15 @@
         <v>244773</v>
       </c>
       <c r="N24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C25">
         <v>14</v>
@@ -3135,15 +3135,15 @@
         <v>209906</v>
       </c>
       <c r="N25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3179,15 +3179,15 @@
         <v>102740</v>
       </c>
       <c r="N26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -3223,15 +3223,15 @@
         <v>143552</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C28">
         <v>37</v>
@@ -3267,15 +3267,15 @@
         <v>110123</v>
       </c>
       <c r="N28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C29">
         <v>387</v>
@@ -3311,15 +3311,15 @@
         <v>127908</v>
       </c>
       <c r="N29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C30">
         <v>626</v>
@@ -3355,15 +3355,15 @@
         <v>159887</v>
       </c>
       <c r="N30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C31">
         <v>1186</v>
@@ -3399,15 +3399,15 @@
         <v>96155</v>
       </c>
       <c r="N31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3443,15 +3443,15 @@
         <v>54001</v>
       </c>
       <c r="N32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C33">
         <v>111</v>
@@ -3487,15 +3487,15 @@
         <v>210851</v>
       </c>
       <c r="N33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C34">
         <v>5034</v>
@@ -3531,15 +3531,15 @@
         <v>288145</v>
       </c>
       <c r="N34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C35">
         <v>1425</v>
@@ -3575,15 +3575,15 @@
         <v>212610</v>
       </c>
       <c r="N35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C36">
         <v>296</v>
@@ -3619,15 +3619,15 @@
         <v>253577</v>
       </c>
       <c r="N36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3663,15 +3663,15 @@
         <v>140371</v>
       </c>
       <c r="N37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -3707,15 +3707,15 @@
         <v>116481</v>
       </c>
       <c r="N38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C39">
         <v>1319</v>
@@ -3751,15 +3751,15 @@
         <v>175351</v>
       </c>
       <c r="N39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3795,15 +3795,15 @@
         <v>174823</v>
       </c>
       <c r="N40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3839,15 +3839,15 @@
         <v>188712</v>
       </c>
       <c r="N41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -3883,15 +3883,15 @@
         <v>136474</v>
       </c>
       <c r="N42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C43">
         <v>506</v>
@@ -3927,15 +3927,15 @@
         <v>187092</v>
       </c>
       <c r="N43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C44">
         <v>2577</v>
@@ -3971,15 +3971,15 @@
         <v>83199</v>
       </c>
       <c r="N44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C45">
         <v>101</v>
@@ -4015,15 +4015,15 @@
         <v>184526</v>
       </c>
       <c r="N45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C46">
         <v>140</v>
@@ -4059,15 +4059,15 @@
         <v>114846</v>
       </c>
       <c r="N46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B47" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C47">
         <v>37</v>
@@ -4103,15 +4103,15 @@
         <v>164929</v>
       </c>
       <c r="N47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C48">
         <v>110</v>
@@ -4147,15 +4147,15 @@
         <v>163977</v>
       </c>
       <c r="N48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C49">
         <v>63</v>
@@ -4191,15 +4191,15 @@
         <v>138792</v>
       </c>
       <c r="N49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4235,15 +4235,15 @@
         <v>95928</v>
       </c>
       <c r="N50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -4279,15 +4279,15 @@
         <v>152123</v>
       </c>
       <c r="N51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C52">
         <v>18</v>
@@ -4323,15 +4323,15 @@
         <v>68528</v>
       </c>
       <c r="N52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -4367,15 +4367,15 @@
         <v>155548</v>
       </c>
       <c r="N53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C54">
         <v>42</v>
@@ -4411,15 +4411,15 @@
         <v>130570</v>
       </c>
       <c r="N54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C55">
         <v>184</v>
@@ -4455,15 +4455,15 @@
         <v>214314</v>
       </c>
       <c r="N55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C56">
         <v>32</v>
@@ -4499,15 +4499,15 @@
         <v>178562</v>
       </c>
       <c r="N56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C57">
         <v>150</v>
@@ -4543,15 +4543,15 @@
         <v>245468</v>
       </c>
       <c r="N57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -4587,15 +4587,15 @@
         <v>8052</v>
       </c>
       <c r="N58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C59">
         <v>42</v>
@@ -4631,15 +4631,15 @@
         <v>151046</v>
       </c>
       <c r="N59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C60">
         <v>1641</v>
@@ -4675,15 +4675,15 @@
         <v>209423</v>
       </c>
       <c r="N60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B61" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C61">
         <v>41</v>
@@ -4719,15 +4719,15 @@
         <v>174458</v>
       </c>
       <c r="N61" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B62" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -4763,15 +4763,15 @@
         <v>155989</v>
       </c>
       <c r="N62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -4807,15 +4807,15 @@
         <v>209965</v>
       </c>
       <c r="N63" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -4851,15 +4851,15 @@
         <v>93866</v>
       </c>
       <c r="N64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C65">
         <v>97</v>
@@ -4895,15 +4895,15 @@
         <v>290730</v>
       </c>
       <c r="N65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C66">
         <v>263</v>
@@ -4939,15 +4939,15 @@
         <v>186405</v>
       </c>
       <c r="N66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C67">
         <v>169</v>
@@ -4983,15 +4983,15 @@
         <v>238187</v>
       </c>
       <c r="N67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -5027,15 +5027,15 @@
         <v>10192</v>
       </c>
       <c r="N68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -5071,15 +5071,15 @@
         <v>111420</v>
       </c>
       <c r="N69" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -5115,15 +5115,15 @@
         <v>160009</v>
       </c>
       <c r="N70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B71" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C71">
         <v>19</v>
@@ -5159,15 +5159,15 @@
         <v>76291</v>
       </c>
       <c r="N71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B72" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -5203,15 +5203,15 @@
         <v>92492</v>
       </c>
       <c r="N72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B73" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -5247,15 +5247,15 @@
         <v>64970</v>
       </c>
       <c r="N73" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B74" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -5291,15 +5291,15 @@
         <v>12990</v>
       </c>
       <c r="N74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B75" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C75">
         <v>217</v>
@@ -5335,15 +5335,15 @@
         <v>271225</v>
       </c>
       <c r="N75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B76" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -5379,15 +5379,15 @@
         <v>165644</v>
       </c>
       <c r="N76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C77">
         <v>17</v>
@@ -5423,15 +5423,15 @@
         <v>222628</v>
       </c>
       <c r="N77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C78">
         <v>11</v>
@@ -5467,15 +5467,15 @@
         <v>89368</v>
       </c>
       <c r="N78" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B79" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -5511,15 +5511,15 @@
         <v>210990</v>
       </c>
       <c r="N79" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -5555,15 +5555,15 @@
         <v>71687</v>
       </c>
       <c r="N80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C81">
         <v>22</v>
@@ -5599,15 +5599,15 @@
         <v>202388</v>
       </c>
       <c r="N81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B82" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C82">
         <v>343</v>
@@ -5643,15 +5643,15 @@
         <v>210989</v>
       </c>
       <c r="N82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C83">
         <v>644</v>
@@ -5687,15 +5687,15 @@
         <v>141507</v>
       </c>
       <c r="N83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C84">
         <v>281</v>
@@ -5731,15 +5731,15 @@
         <v>197290</v>
       </c>
       <c r="N84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C85">
         <v>266</v>
@@ -5775,15 +5775,15 @@
         <v>214615</v>
       </c>
       <c r="N85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B86" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C86">
         <v>10</v>
@@ -5819,15 +5819,15 @@
         <v>173003</v>
       </c>
       <c r="N86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B87" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C87">
         <v>512</v>
@@ -5863,15 +5863,15 @@
         <v>232944</v>
       </c>
       <c r="N87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C88">
         <v>61</v>
@@ -5907,15 +5907,15 @@
         <v>126907</v>
       </c>
       <c r="N88" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B89" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C89">
         <v>363</v>
@@ -5951,15 +5951,15 @@
         <v>218156</v>
       </c>
       <c r="N89" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B90" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C90">
         <v>33</v>
@@ -5995,15 +5995,15 @@
         <v>70811</v>
       </c>
       <c r="N90" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B91" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C91">
         <v>984</v>
@@ -6039,15 +6039,15 @@
         <v>190180</v>
       </c>
       <c r="N91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C92">
         <v>1609</v>
@@ -6083,15 +6083,15 @@
         <v>156254</v>
       </c>
       <c r="N92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C93">
         <v>18</v>
@@ -6127,15 +6127,15 @@
         <v>157224</v>
       </c>
       <c r="N93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C94">
         <v>1014</v>
@@ -6171,15 +6171,15 @@
         <v>110588</v>
       </c>
       <c r="N94" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B95" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C95">
         <v>3208</v>
@@ -6215,15 +6215,15 @@
         <v>125405</v>
       </c>
       <c r="N95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B96" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C96">
         <v>396</v>
@@ -6259,15 +6259,15 @@
         <v>257043</v>
       </c>
       <c r="N96" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B97" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C97">
         <v>16</v>
@@ -6303,15 +6303,15 @@
         <v>95723</v>
       </c>
       <c r="N97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B98" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C98">
         <v>585</v>
@@ -6347,15 +6347,15 @@
         <v>185515</v>
       </c>
       <c r="N98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B99" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C99">
         <v>107</v>
@@ -6391,15 +6391,15 @@
         <v>226460</v>
       </c>
       <c r="N99" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B100" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -6435,15 +6435,15 @@
         <v>164157</v>
       </c>
       <c r="N100" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B101" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -6479,15 +6479,15 @@
         <v>182761</v>
       </c>
       <c r="N101" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B102" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -6523,15 +6523,15 @@
         <v>91462</v>
       </c>
       <c r="N102" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B103" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C103">
         <v>18</v>
@@ -6567,15 +6567,15 @@
         <v>101699</v>
       </c>
       <c r="N103" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B104" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -6611,15 +6611,15 @@
         <v>12224</v>
       </c>
       <c r="N104" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -6655,15 +6655,15 @@
         <v>238376</v>
       </c>
       <c r="N105" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B106" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -6699,15 +6699,15 @@
         <v>237668</v>
       </c>
       <c r="N106" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B107" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -6743,15 +6743,15 @@
         <v>96376</v>
       </c>
       <c r="N107" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -6787,15 +6787,15 @@
         <v>271474</v>
       </c>
       <c r="N108" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B109" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -6831,15 +6831,15 @@
         <v>194895</v>
       </c>
       <c r="N109" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -6875,15 +6875,15 @@
         <v>145608</v>
       </c>
       <c r="N110" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B111" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -6919,15 +6919,15 @@
         <v>146304</v>
       </c>
       <c r="N111" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B112" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -6963,15 +6963,15 @@
         <v>234466</v>
       </c>
       <c r="N112" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B113" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -7007,15 +7007,15 @@
         <v>157681</v>
       </c>
       <c r="N113" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B114" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -7051,15 +7051,15 @@
         <v>146497</v>
       </c>
       <c r="N114" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B115" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -7095,15 +7095,15 @@
         <v>159848</v>
       </c>
       <c r="N115" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B116" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -7139,15 +7139,15 @@
         <v>203151</v>
       </c>
       <c r="N116" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B117" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C117">
         <v>6</v>
@@ -7183,15 +7183,15 @@
         <v>145742</v>
       </c>
       <c r="N117" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B118" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -7227,15 +7227,15 @@
         <v>237254</v>
       </c>
       <c r="N118" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B119" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -7271,15 +7271,15 @@
         <v>182393</v>
       </c>
       <c r="N119" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B120" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C120">
         <v>3</v>
@@ -7315,15 +7315,15 @@
         <v>197337</v>
       </c>
       <c r="N120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B121" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -7359,15 +7359,15 @@
         <v>130986</v>
       </c>
       <c r="N121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B122" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C122">
         <v>3</v>
@@ -7403,15 +7403,15 @@
         <v>193291</v>
       </c>
       <c r="N122" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B123" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -7447,15 +7447,15 @@
         <v>220196</v>
       </c>
       <c r="N123" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C124">
         <v>4</v>
@@ -7491,15 +7491,15 @@
         <v>117802</v>
       </c>
       <c r="N124" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B125" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C125">
         <v>5</v>
@@ -7535,15 +7535,15 @@
         <v>114100</v>
       </c>
       <c r="N125" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B126" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C126">
         <v>7</v>
@@ -7579,15 +7579,15 @@
         <v>125343</v>
       </c>
       <c r="N126" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B127" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C127">
         <v>4</v>
@@ -7623,15 +7623,15 @@
         <v>210618</v>
       </c>
       <c r="N127" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B128" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C128">
         <v>3</v>
@@ -7667,15 +7667,15 @@
         <v>207970</v>
       </c>
       <c r="N128" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B129" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C129">
         <v>19</v>
@@ -7711,15 +7711,15 @@
         <v>113907</v>
       </c>
       <c r="N129" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B130" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -7755,15 +7755,15 @@
         <v>230448</v>
       </c>
       <c r="N130" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B131" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -7799,15 +7799,15 @@
         <v>236485</v>
       </c>
       <c r="N131" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B132" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C132">
         <v>4</v>
@@ -7843,15 +7843,15 @@
         <v>317189</v>
       </c>
       <c r="N132" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B133" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -7887,15 +7887,15 @@
         <v>60212</v>
       </c>
       <c r="N133" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B134" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C134">
         <v>61</v>
@@ -7931,15 +7931,15 @@
         <v>163265</v>
       </c>
       <c r="N134" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B135" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -7975,15 +7975,15 @@
         <v>121168</v>
       </c>
       <c r="N135" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B136" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -8019,15 +8019,15 @@
         <v>130919</v>
       </c>
       <c r="N136" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B137" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -8063,15 +8063,15 @@
         <v>202833</v>
       </c>
       <c r="N137" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B138" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -8107,15 +8107,15 @@
         <v>237719</v>
       </c>
       <c r="N138" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B139" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -8151,15 +8151,15 @@
         <v>235595</v>
       </c>
       <c r="N139" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B140" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C140">
         <v>52</v>
@@ -8195,15 +8195,15 @@
         <v>192638</v>
       </c>
       <c r="N140" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B141" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C141">
         <v>184</v>
@@ -8239,15 +8239,15 @@
         <v>126599</v>
       </c>
       <c r="N141" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B142" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C142">
         <v>469</v>
@@ -8283,15 +8283,15 @@
         <v>115890</v>
       </c>
       <c r="N142" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B143" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C143">
         <v>731</v>
@@ -8327,15 +8327,15 @@
         <v>203261</v>
       </c>
       <c r="N143" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B144" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C144">
         <v>254</v>
@@ -8371,15 +8371,15 @@
         <v>296057</v>
       </c>
       <c r="N144" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B145" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C145">
         <v>89</v>
@@ -8415,15 +8415,15 @@
         <v>194869</v>
       </c>
       <c r="N145" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B146" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C146">
         <v>295</v>
@@ -8459,15 +8459,15 @@
         <v>219515</v>
       </c>
       <c r="N146" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B147" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C147">
         <v>131</v>
@@ -8503,15 +8503,15 @@
         <v>228971</v>
       </c>
       <c r="N147" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B148" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C148">
         <v>14</v>
@@ -8547,15 +8547,15 @@
         <v>110600</v>
       </c>
       <c r="N148" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B149" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C149">
         <v>107</v>
@@ -8591,15 +8591,15 @@
         <v>180512</v>
       </c>
       <c r="N149" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B150" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C150">
         <v>85</v>
@@ -8635,15 +8635,15 @@
         <v>224825</v>
       </c>
       <c r="N150" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B151" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C151">
         <v>210</v>
@@ -8679,15 +8679,15 @@
         <v>247250</v>
       </c>
       <c r="N151" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B152" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C152">
         <v>44</v>
@@ -8723,15 +8723,15 @@
         <v>222093</v>
       </c>
       <c r="N152" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B153" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C153">
         <v>958</v>
@@ -8767,15 +8767,15 @@
         <v>238490</v>
       </c>
       <c r="N153" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B154" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C154">
         <v>11</v>
@@ -8811,15 +8811,15 @@
         <v>211055</v>
       </c>
       <c r="N154" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B155" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C155">
         <v>14</v>
@@ -8855,15 +8855,15 @@
         <v>254842</v>
       </c>
       <c r="N155" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B156" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C156">
         <v>351</v>
@@ -8899,15 +8899,15 @@
         <v>254125</v>
       </c>
       <c r="N156" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B157" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C157">
         <v>382</v>
@@ -8943,15 +8943,15 @@
         <v>227302</v>
       </c>
       <c r="N157" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B158" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C158">
         <v>201</v>
@@ -8987,15 +8987,15 @@
         <v>205586</v>
       </c>
       <c r="N158" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B159" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C159">
         <v>4</v>
@@ -9031,15 +9031,15 @@
         <v>215837</v>
       </c>
       <c r="N159" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B160" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C160">
         <v>27</v>
@@ -9075,15 +9075,15 @@
         <v>197193</v>
       </c>
       <c r="N160" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B161" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C161">
         <v>26</v>
@@ -9119,15 +9119,15 @@
         <v>242549</v>
       </c>
       <c r="N161" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B162" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C162">
         <v>168</v>
@@ -9163,15 +9163,15 @@
         <v>239051</v>
       </c>
       <c r="N162" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B163" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C163">
         <v>3930</v>
@@ -9207,15 +9207,15 @@
         <v>222834</v>
       </c>
       <c r="N163" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B164" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C164">
         <v>51</v>
@@ -9251,15 +9251,15 @@
         <v>145384</v>
       </c>
       <c r="N164" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B165" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C165">
         <v>624</v>
@@ -9295,15 +9295,15 @@
         <v>172675</v>
       </c>
       <c r="N165" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B166" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C166">
         <v>535</v>
@@ -9339,15 +9339,15 @@
         <v>204599</v>
       </c>
       <c r="N166" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B167" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C167">
         <v>1203</v>
@@ -9383,15 +9383,15 @@
         <v>193373</v>
       </c>
       <c r="N167" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B168" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C168">
         <v>257</v>
@@ -9427,15 +9427,15 @@
         <v>237282</v>
       </c>
       <c r="N168" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B169" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C169">
         <v>70</v>
@@ -9471,15 +9471,15 @@
         <v>145749</v>
       </c>
       <c r="N169" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B170" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C170">
         <v>3031</v>
@@ -9515,15 +9515,15 @@
         <v>197678</v>
       </c>
       <c r="N170" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B171" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C171">
         <v>10</v>
@@ -9559,15 +9559,15 @@
         <v>10289</v>
       </c>
       <c r="N171" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B172" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C172">
         <v>12</v>
@@ -9603,15 +9603,15 @@
         <v>269996</v>
       </c>
       <c r="N172" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B173" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C173">
         <v>2</v>
@@ -9647,15 +9647,15 @@
         <v>99282</v>
       </c>
       <c r="N173" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B174" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C174">
         <v>830</v>
@@ -9691,15 +9691,15 @@
         <v>100916</v>
       </c>
       <c r="N174" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B175" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -9735,15 +9735,15 @@
         <v>287494</v>
       </c>
       <c r="N175" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B176" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C176">
         <v>6</v>
@@ -9779,15 +9779,15 @@
         <v>259673</v>
       </c>
       <c r="N176" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B177" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -9823,15 +9823,15 @@
         <v>114152</v>
       </c>
       <c r="N177" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B178" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C178">
         <v>12</v>
@@ -9867,15 +9867,15 @@
         <v>234351</v>
       </c>
       <c r="N178" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B179" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C179">
         <v>23</v>
@@ -9911,15 +9911,15 @@
         <v>63529</v>
       </c>
       <c r="N179" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B180" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -9955,15 +9955,15 @@
         <v>149112</v>
       </c>
       <c r="N180" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B181" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C181">
         <v>15</v>
@@ -9999,15 +9999,15 @@
         <v>238011</v>
       </c>
       <c r="N181" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B182" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -10043,7 +10043,7 @@
         <v>185950</v>
       </c>
       <c r="N182" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
